--- a/파일럿 프로젝트.xlsx
+++ b/파일럿 프로젝트.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
   <si>
     <t>요구사항</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,6 +279,18 @@
   </si>
   <si>
     <t>전기세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*80</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -316,7 +328,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -339,20 +351,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -361,11 +404,8 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -373,6 +413,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="21" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -677,7 +747,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -706,105 +776,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="1"/>
@@ -812,185 +882,192 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="6"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="6"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="19">
+        <v>0</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="6"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="6"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="6"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="6"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="6"/>
+    <row r="15" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A10:A30"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
@@ -999,6 +1076,7 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A10:A14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1024,105 +1102,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="1"/>
@@ -1130,14 +1208,14 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F11" s="1"/>
@@ -1145,16 +1223,16 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>55</v>
       </c>
       <c r="F12" s="1"/>
@@ -1162,14 +1240,14 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="1"/>
@@ -1177,10 +1255,10 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="5" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F14" s="1"/>
@@ -1188,10 +1266,10 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="5" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F15" s="1"/>
@@ -1199,10 +1277,10 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="5" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F16" s="1"/>
@@ -1210,10 +1288,10 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="5" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F17" s="1"/>
@@ -1221,10 +1299,10 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="5" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F18" s="1"/>
@@ -1232,10 +1310,10 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="5" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F19" s="1"/>
@@ -1243,10 +1321,10 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="5" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F20" s="1"/>
@@ -1254,10 +1332,10 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="5" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F21" s="1"/>
@@ -1265,14 +1343,14 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="5" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="3" t="s">
         <v>57</v>
       </c>
       <c r="F22" s="1"/>
@@ -1280,14 +1358,14 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="5" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="3" t="s">
         <v>56</v>
       </c>
       <c r="F23" s="1"/>
@@ -1295,27 +1373,27 @@
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="5" t="s">
+      <c r="A24" s="7"/>
+      <c r="B24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="3"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="5" t="s">
+      <c r="A25" s="7"/>
+      <c r="B25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F25" s="1"/>
@@ -1323,14 +1401,14 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="5" t="s">
+      <c r="A26" s="7"/>
+      <c r="B26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="3" t="s">
         <v>59</v>
       </c>
       <c r="F26" s="1"/>
@@ -1338,14 +1416,14 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="5" t="s">
+      <c r="A27" s="7"/>
+      <c r="B27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F27" s="1"/>
@@ -1353,55 +1431,60 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="5" t="s">
+      <c r="A28" s="7"/>
+      <c r="B28" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="5" t="s">
+      <c r="A29" s="7"/>
+      <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="5" t="s">
+      <c r="A30" s="7"/>
+      <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="5" t="s">
+      <c r="A31" s="7"/>
+      <c r="B31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="3" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B13:B21"/>
+    <mergeCell ref="C13:C21"/>
+    <mergeCell ref="A12:A31"/>
+    <mergeCell ref="B9:D9"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
@@ -1410,11 +1493,6 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B13:B21"/>
-    <mergeCell ref="C13:C21"/>
-    <mergeCell ref="A12:A31"/>
-    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/파일럿 프로젝트.xlsx
+++ b/파일럿 프로젝트.xlsx
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="83">
   <si>
     <t>요구사항</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -278,19 +279,180 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전기세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>a1234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0~0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*80</t>
+    <t>20150101081525(2015년 1월 1일 오전 8시 15분 25초)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전력량(kw)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object Identifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광역시도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시군구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주택 유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF47494D"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주택</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF47494D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF47494D"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아파트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF47494D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:B </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF47494D"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>빌라</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF47494D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:C </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF47494D"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오피스텔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF47494D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:D</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">구성원 수 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1 ~ 6(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF47494D"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF47494D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20150101081525 0.1 a1234 13221144 KR 111 1234 A 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0 ~ 0.28108234117529(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF47494D"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>평균</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF47494D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 0.140541170587645)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -298,7 +460,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,6 +481,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF47494D"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -328,7 +497,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -352,22 +521,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -376,13 +530,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -404,15 +558,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -433,16 +578,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="21" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="21" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -747,16 +903,16 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.375" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="15.625" bestFit="1" customWidth="1"/>
@@ -776,297 +932,324 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>30</v>
+      <c r="D10" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="13" t="s">
         <v>70</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="17" t="s">
         <v>68</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="4" t="s">
-        <v>69</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="18">
+        <v>0</v>
+      </c>
+      <c r="E13" s="19"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="19">
-        <v>0</v>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-    </row>
-    <row r="23" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-    </row>
-    <row r="24" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-    </row>
-    <row r="25" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="11"/>
-    </row>
-    <row r="26" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="11"/>
-    </row>
-    <row r="27" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="11"/>
-    </row>
-    <row r="28" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="11"/>
-    </row>
-    <row r="29" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="11"/>
-    </row>
-    <row r="30" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="11"/>
+    <row r="15" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="17">
+        <v>111</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="17">
+        <v>1234</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
@@ -1076,7 +1259,8 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A10:A18"/>
+    <mergeCell ref="B14:B18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1105,93 +1289,93 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1208,7 +1392,7 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="3" t="s">
         <v>31</v>
       </c>
@@ -1223,7 +1407,7 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1240,11 +1424,11 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="15" t="s">
         <v>54</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -1255,9 +1439,9 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1266,9 +1450,9 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="3" t="s">
         <v>37</v>
       </c>
@@ -1277,9 +1461,9 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="3" t="s">
         <v>38</v>
       </c>
@@ -1288,9 +1472,9 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="3" t="s">
         <v>39</v>
       </c>
@@ -1299,9 +1483,9 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="3" t="s">
         <v>40</v>
       </c>
@@ -1310,9 +1494,9 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="3" t="s">
         <v>41</v>
       </c>
@@ -1321,9 +1505,9 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="3" t="s">
         <v>42</v>
       </c>
@@ -1332,9 +1516,9 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="3" t="s">
         <v>43</v>
       </c>
@@ -1343,7 +1527,7 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="3" t="s">
         <v>12</v>
       </c>
@@ -1358,7 +1542,7 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="3" t="s">
         <v>13</v>
       </c>
@@ -1373,7 +1557,7 @@
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="3" t="s">
         <v>14</v>
       </c>
@@ -1386,7 +1570,7 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="3" t="s">
         <v>15</v>
       </c>
@@ -1401,7 +1585,7 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="3" t="s">
         <v>16</v>
       </c>
@@ -1416,7 +1600,7 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="3" t="s">
         <v>17</v>
       </c>
@@ -1431,7 +1615,7 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="3" t="s">
         <v>18</v>
       </c>
@@ -1443,7 +1627,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -1455,7 +1639,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
@@ -1467,7 +1651,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="3" t="s">
         <v>21</v>
       </c>

--- a/파일럿 프로젝트.xlsx
+++ b/파일럿 프로젝트.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="4440" windowWidth="14805" windowHeight="7890"/>
+    <workbookView xWindow="1260" yWindow="4440" windowWidth="14805" windowHeight="7890" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>요구사항</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -295,10 +295,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>무선청소기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공기청정기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -319,23 +315,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아파트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빌라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오피스텔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1~6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나라</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -348,14 +328,6 @@
   </si>
   <si>
     <t>0~3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0~2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>샘플</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -458,6 +430,30 @@
     <t>20150101081525, 0.1, a1234, 13221144, KR, 111, 1234, A, 4, 2, 1, 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>고객정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전광역시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유성구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청소기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -527,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -566,11 +562,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -874,7 +871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -907,95 +904,95 @@
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
     </row>
     <row r="5" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
     </row>
     <row r="9" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="8"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
-        <v>62</v>
+      <c r="A10" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>15</v>
@@ -1012,15 +1009,15 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="14" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="1"/>
@@ -1028,7 +1025,7 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
@@ -1044,7 +1041,7 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1058,7 +1055,7 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
@@ -1072,8 +1069,8 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:16384" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="14" t="s">
@@ -17463,8 +17460,8 @@
       <c r="XFD15"/>
     </row>
     <row r="16" spans="1:16384" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="14" t="s">
         <v>25</v>
       </c>
@@ -17476,8 +17473,8 @@
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:16384" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="14" t="s">
         <v>26</v>
       </c>
@@ -17489,8 +17486,8 @@
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:16384" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="14" t="s">
         <v>27</v>
       </c>
@@ -17503,8 +17500,8 @@
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:16384" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="14" t="s">
         <v>30</v>
       </c>
@@ -17517,15 +17514,15 @@
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:16384" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -17533,15 +17530,15 @@
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:16384" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -17549,13 +17546,13 @@
       <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:16384" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
@@ -17586,7 +17583,7 @@
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="10" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -34009,17 +34006,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="A10:A22"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34029,16 +34026,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P101"/>
+  <dimension ref="B2:P34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
@@ -34048,164 +34046,119 @@
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>55</v>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B2" s="17" t="s">
+        <v>61</v>
       </c>
-      <c r="B1" t="s">
-        <v>50</v>
+      <c r="C2" s="17" t="s">
+        <v>46</v>
       </c>
-      <c r="C1" t="s">
-        <v>51</v>
+      <c r="D2" s="17" t="s">
+        <v>47</v>
       </c>
-      <c r="D1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="E2" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J2" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K2" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L2" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N2" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O2" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P2" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="P1" t="s">
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B3" s="17">
+        <v>1</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F3" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>49</v>
+      <c r="G3" s="17" t="s">
+        <v>48</v>
       </c>
-      <c r="G2" t="s">
-        <v>53</v>
+      <c r="H3" s="17" t="s">
+        <v>48</v>
       </c>
-      <c r="H2" t="s">
-        <v>53</v>
+      <c r="I3" s="17" t="s">
+        <v>48</v>
       </c>
-      <c r="I2" t="s">
-        <v>53</v>
+      <c r="J3" s="17" t="s">
+        <v>65</v>
       </c>
-      <c r="J2" t="s">
-        <v>54</v>
+      <c r="K3" s="17" t="s">
+        <v>66</v>
       </c>
-      <c r="K2" t="s">
-        <v>54</v>
+      <c r="L3" s="17" t="s">
+        <v>48</v>
       </c>
-      <c r="L2" t="s">
-        <v>53</v>
+      <c r="M3" s="17" t="s">
+        <v>48</v>
       </c>
-      <c r="M2" t="s">
-        <v>53</v>
+      <c r="N3" s="17" t="s">
+        <v>48</v>
       </c>
-      <c r="N2" t="s">
-        <v>53</v>
+      <c r="O3" s="17" t="s">
+        <v>48</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="P3" s="17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -34214,10 +34167,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -34226,10 +34176,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -34238,10 +34185,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -34250,10 +34194,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -34262,10 +34203,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -34274,10 +34212,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -34286,10 +34221,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
+    <row r="17" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -34298,10 +34230,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -34310,10 +34239,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -34322,10 +34248,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -34334,10 +34257,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
+    <row r="21" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -34346,10 +34266,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
+    <row r="22" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -34358,10 +34275,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
+    <row r="23" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -34370,10 +34284,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
-      </c>
+    <row r="24" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -34382,10 +34293,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24</v>
-      </c>
+    <row r="25" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -34394,10 +34302,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>25</v>
-      </c>
+    <row r="26" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -34406,10 +34311,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>26</v>
-      </c>
+    <row r="27" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -34418,399 +34320,50 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>27</v>
-      </c>
+    <row r="28" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="8"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>28</v>
-      </c>
+    <row r="29" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>29</v>
-      </c>
+    <row r="30" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>30</v>
-      </c>
+    <row r="31" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
+    <row r="32" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>32</v>
-      </c>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>100</v>
-      </c>
+    <row r="34" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
